--- a/프로젝트/설계 단계 계획서/ACC_요구사항명세서.xlsx
+++ b/프로젝트/설계 단계 계획서/ACC_요구사항명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-07\Desktop\2조 소프트1\프로젝트\설계 단계 계획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-15\Desktop\gitdown\프로젝트\설계 단계 계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,16 +57,6 @@
   <si>
     <t xml:space="preserve">
 타 사업에 참여 중인 인력을 제안 사업의 참여 인력으로 제안한 경우에는 기술평가 대상에서 제외하며, 사업자로 선정된 후에 밝혀질 경우에도 사업자 선정을 무효로 함
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-예매 내역 조회 기능
-- 상품번호, 상품명 별 조회 기능
-- 예매일, 공연일 별 조회 기능
-- 상태별(전체, 예매완료, 발권대기, 발권완료, 취소완료) 조회
-- 티켓상태(예매, 취소)별 조회
-- 티켓수령 방법별 조회 기능
 </t>
   </si>
   <si>
@@ -315,13 +305,6 @@
 시스템 펌웨어(firmware) 패치 및 업그레이드
 - 최신 시스템 펌웨어 정보 및 기술정보 제공
 - 시스템 펌웨어 패치 적용 및 업그레이드 지원
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-예매정보 조회 기능
-- 예매번호, 예매자명, 휴대폰번호, 회원ID 등 조회 기능
-- 예매일별 조회 기능(오늘, 1주일,1개월, 3개월, 수시 등)
 </t>
   </si>
   <si>
@@ -1997,6 +1980,24 @@
     <t>일반</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+예매 내역 조회 기능
+- 상품번호, 상품명 별 조회 기능
+- 예매일, 공연일 별 조회 기능
+- 상태별(전체, 예매완료, 발권대기, 발권완료, 취소완료) 조회
+- 티켓수령 방법별 조회 기능
+</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+예매정보 조회 기능
+- 예매번호, 예매자명, 휴대폰번호, 회원ID 등 조회 기능
+- 예매일별 조회 기능
+</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2012,7 +2013,7 @@
     <numFmt numFmtId="182" formatCode="_-&quot;₩&quot;* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2935,27 +2936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="3" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3097,10 +3077,28 @@
     <xf numFmtId="0" fontId="28" fillId="16" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3112,13 +3110,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="3" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9136,230 +9137,230 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="17" customWidth="1"/>
-    <col min="4" max="11" width="8.88671875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="12.77734375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="10" customWidth="1"/>
+    <col min="4" max="11" width="8.88671875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="33.75">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="33.75">
+      <c r="B10" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25">
+      <c r="B15" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24" t="s">
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75">
+      <c r="B21" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="15"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" ht="21" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="41" type="noConversion"/>
@@ -9374,3390 +9375,3444 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="83.109375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="44" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="33"/>
+    <col min="1" max="1" width="8.77734375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="83.109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="37" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="27">
+      <c r="A1" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="25.5">
+      <c r="A3" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7" ht="11.25">
+      <c r="A4" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.25">
+      <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A6" s="30">
+        <v>1</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A7" s="30">
+        <v>2</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A8" s="30">
+        <v>3</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A9" s="30">
+        <v>4</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A10" s="45">
+        <v>5</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="45">
+        <v>6</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A12" s="45">
+        <v>7</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A13" s="45">
+        <v>8</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A14" s="45">
+        <v>9</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A15" s="45">
+        <v>10</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A16" s="45">
+        <v>11</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A17" s="45">
+        <v>12</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A18" s="45">
+        <v>13</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A19" s="45">
+        <v>14</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A20" s="45">
+        <v>15</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="67.5">
+      <c r="A21" s="45">
+        <v>16</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A22" s="45">
+        <v>17</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A23" s="45">
+        <v>18</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A24" s="45">
+        <v>19</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A25" s="45">
+        <v>20</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A26" s="45">
+        <v>21</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A27" s="45">
+        <v>22</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A28" s="45">
+        <v>23</v>
+      </c>
+      <c r="B28" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="12" t="s">
+      <c r="C28" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A29" s="45">
+        <v>24</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A30" s="45">
+        <v>25</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="78.75">
+      <c r="A31" s="45">
+        <v>26</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A32" s="45">
+        <v>27</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="78.75">
+      <c r="A33" s="45">
+        <v>28</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A34" s="45">
+        <v>29</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A35" s="45">
+        <v>30</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A36" s="45">
+        <v>31</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A37" s="45">
+        <v>32</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A38" s="45">
+        <v>33</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="67.5">
+      <c r="A39" s="45">
+        <v>34</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A40" s="45">
+        <v>35</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A41" s="45">
+        <v>36</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A42" s="45">
+        <v>37</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A43" s="45">
+        <v>38</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="51"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A44" s="45">
+        <v>39</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A45" s="45">
+        <v>40</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A46" s="45">
+        <v>41</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A47" s="45">
+        <v>42</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="11.25">
+      <c r="A48" s="45">
+        <v>43</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="11.25">
+      <c r="A49" s="45">
+        <v>44</v>
+      </c>
+      <c r="B49" s="48"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A50" s="45">
+        <v>45</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A51" s="45">
+        <v>46</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="51"/>
+      <c r="F51" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A52" s="45">
+        <v>47</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="51"/>
+      <c r="F52" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A53" s="45">
+        <v>48</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="51"/>
+      <c r="F53" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A54" s="45">
+        <v>49</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="51"/>
+      <c r="F54" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="90">
+      <c r="A55" s="45">
+        <v>50</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="90">
+      <c r="A56" s="45">
+        <v>51</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="11.25">
+      <c r="A57" s="45">
+        <v>52</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A58" s="45">
+        <v>53</v>
+      </c>
+      <c r="B58" s="48"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="51"/>
+      <c r="F58" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="56.25">
+      <c r="A59" s="45">
+        <v>54</v>
+      </c>
+      <c r="B59" s="48"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="67.5">
+      <c r="A60" s="45">
+        <v>55</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="11.25">
+      <c r="A61" s="45">
+        <v>56</v>
+      </c>
+      <c r="B61" s="48"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="51"/>
+      <c r="F61" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="56.25">
+      <c r="A62" s="45">
+        <v>57</v>
+      </c>
+      <c r="B62" s="48"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="51"/>
+      <c r="F62" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="11.25">
+      <c r="A63" s="45">
+        <v>58</v>
+      </c>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="E63" s="51"/>
+      <c r="F63" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" s="27" customFormat="1" ht="56.25">
+      <c r="A64" s="45">
+        <v>59</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" s="27" customFormat="1" ht="123.75">
+      <c r="A65" s="45">
+        <v>60</v>
+      </c>
+      <c r="B65" s="48"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" s="27" customFormat="1" ht="78.75">
+      <c r="A66" s="45">
+        <v>61</v>
+      </c>
+      <c r="B66" s="48"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" s="27" customFormat="1" ht="56.25">
+      <c r="A67" s="45">
+        <v>62</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" s="27" customFormat="1" ht="101.25">
+      <c r="A68" s="45">
+        <v>63</v>
+      </c>
+      <c r="B68" s="48"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" s="27" customFormat="1" ht="67.5">
+      <c r="A69" s="45">
+        <v>64</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" s="27" customFormat="1" ht="45">
+      <c r="A70" s="45">
+        <v>65</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" s="27" customFormat="1" ht="90">
+      <c r="A71" s="45">
+        <v>66</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" s="27" customFormat="1" ht="67.5">
+      <c r="A72" s="45">
+        <v>67</v>
+      </c>
+      <c r="B72" s="48"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" s="27" customFormat="1" ht="67.5">
+      <c r="A73" s="45">
+        <v>68</v>
+      </c>
+      <c r="B73" s="48"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" s="27" customFormat="1" ht="67.5">
+      <c r="A74" s="45">
+        <v>69</v>
+      </c>
+      <c r="B74" s="48"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" s="27" customFormat="1" ht="56.25">
+      <c r="A75" s="45">
+        <v>70</v>
+      </c>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" s="24" customFormat="1" ht="67.5">
+      <c r="A76" s="45">
+        <v>71</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="G76" s="25"/>
+    </row>
+    <row r="77" spans="1:7" ht="45">
+      <c r="A77" s="45">
+        <v>72</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="51"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="25"/>
+    </row>
+    <row r="78" spans="1:7" ht="45">
+      <c r="A78" s="45">
+        <v>73</v>
+      </c>
+      <c r="B78" s="48"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="51"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="25"/>
+    </row>
+    <row r="79" spans="1:7" ht="11.25">
+      <c r="A79" s="45">
+        <v>74</v>
+      </c>
+      <c r="B79" s="48"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="51"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="25"/>
+    </row>
+    <row r="80" spans="1:7" ht="11.25">
+      <c r="A80" s="45">
+        <v>75</v>
+      </c>
+      <c r="B80" s="48"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="51"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="1:7" ht="45">
+      <c r="A81" s="45">
+        <v>76</v>
+      </c>
+      <c r="B81" s="48"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="51"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="25"/>
+    </row>
+    <row r="82" spans="1:7" ht="11.25">
+      <c r="A82" s="45">
+        <v>77</v>
+      </c>
+      <c r="B82" s="48"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="51"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="25"/>
+    </row>
+    <row r="83" spans="1:7" ht="56.25">
+      <c r="A83" s="45">
+        <v>78</v>
+      </c>
+      <c r="B83" s="48"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="51"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="25"/>
+    </row>
+    <row r="84" spans="1:7" ht="11.25">
+      <c r="A84" s="45">
+        <v>79</v>
+      </c>
+      <c r="B84" s="48"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="51"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="25"/>
+    </row>
+    <row r="85" spans="1:7" ht="11.25">
+      <c r="A85" s="45">
+        <v>80</v>
+      </c>
+      <c r="B85" s="48"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="51"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="1:7" ht="11.25">
+      <c r="A86" s="45">
+        <v>81</v>
+      </c>
+      <c r="B86" s="49"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" s="51"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A87" s="45">
         <v>82</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="B87" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="F87" s="44"/>
+      <c r="G87" s="25"/>
+    </row>
+    <row r="88" spans="1:7" ht="11.25">
+      <c r="A88" s="45">
         <v>83</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
-        <v>1</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="48" t="s">
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="53"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="25"/>
+    </row>
+    <row r="89" spans="1:7" ht="11.25">
+      <c r="A89" s="45">
+        <v>84</v>
+      </c>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="53"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="25"/>
+    </row>
+    <row r="90" spans="1:7" ht="45">
+      <c r="A90" s="45">
+        <v>85</v>
+      </c>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="54"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="25"/>
+    </row>
+    <row r="91" spans="1:7" s="24" customFormat="1" ht="11.25">
+      <c r="A91" s="45">
+        <v>86</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="51"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" s="24" customFormat="1" ht="56.25">
+      <c r="A92" s="45">
+        <v>87</v>
+      </c>
+      <c r="B92" s="49"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="51"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" s="24" customFormat="1" ht="45">
+      <c r="A93" s="45">
+        <v>88</v>
+      </c>
+      <c r="B93" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="51"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" s="24" customFormat="1" ht="11.25">
+      <c r="A94" s="45">
+        <v>89</v>
+      </c>
+      <c r="B94" s="48"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="51"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" s="24" customFormat="1" ht="11.25">
+      <c r="A95" s="45">
+        <v>90</v>
+      </c>
+      <c r="B95" s="49"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="51"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A96" s="45">
+        <v>91</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96" s="51"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A97" s="45">
+        <v>92</v>
+      </c>
+      <c r="B97" s="49"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="51"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" s="6" customFormat="1" ht="90">
+      <c r="A98" s="45">
+        <v>93</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="51"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A99" s="45">
+        <v>94</v>
+      </c>
+      <c r="B99" s="48"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" s="51"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A100" s="45">
+        <v>95</v>
+      </c>
+      <c r="B100" s="49"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="51"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A101" s="45">
+        <v>96</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E101" s="51"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A102" s="45">
+        <v>97</v>
+      </c>
+      <c r="B102" s="48"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="51"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A103" s="45">
+        <v>98</v>
+      </c>
+      <c r="B103" s="48"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E103" s="51"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A104" s="45">
+        <v>99</v>
+      </c>
+      <c r="B104" s="48"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="51"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A105" s="45">
+        <v>100</v>
+      </c>
+      <c r="B105" s="48"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E105" s="51"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A106" s="45">
+        <v>101</v>
+      </c>
+      <c r="B106" s="49"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" s="51"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A107" s="45">
+        <v>102</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" s="51"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A108" s="45">
+        <v>103</v>
+      </c>
+      <c r="B108" s="48"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
-        <v>2</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="48" t="s">
+      <c r="E108" s="51"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A109" s="45">
+        <v>104</v>
+      </c>
+      <c r="B109" s="49"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" s="51"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A110" s="45">
+        <v>105</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C110" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" s="51"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A111" s="45">
+        <v>106</v>
+      </c>
+      <c r="B111" s="48"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="51"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A112" s="45">
+        <v>107</v>
+      </c>
+      <c r="B112" s="49"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="51"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A113" s="45">
+        <v>108</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" s="51"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="1:7" s="6" customFormat="1" ht="90">
+      <c r="A114" s="45">
+        <v>109</v>
+      </c>
+      <c r="B114" s="49"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="51"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A115" s="45">
+        <v>110</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="51"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A116" s="45">
+        <v>111</v>
+      </c>
+      <c r="B116" s="48"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="51"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A117" s="45">
+        <v>112</v>
+      </c>
+      <c r="B117" s="49"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="51"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118" spans="1:7" s="6" customFormat="1" ht="11.25">
+      <c r="A118" s="45">
+        <v>113</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="51"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A119" s="45">
+        <v>114</v>
+      </c>
+      <c r="B119" s="48"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="51"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" s="6" customFormat="1" ht="56.25">
+      <c r="A120" s="45">
+        <v>115</v>
+      </c>
+      <c r="B120" s="49"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="51"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" ht="11.25">
+      <c r="A121" s="45">
+        <v>116</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E121" s="51"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7" ht="78.75">
+      <c r="A122" s="45">
+        <v>117</v>
+      </c>
+      <c r="B122" s="48"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E122" s="51"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" ht="101.25">
+      <c r="A123" s="45">
+        <v>118</v>
+      </c>
+      <c r="B123" s="48"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" s="51"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="1:7" ht="45">
+      <c r="A124" s="45">
+        <v>119</v>
+      </c>
+      <c r="B124" s="48"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" s="51"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7" ht="11.25">
+      <c r="A125" s="45">
+        <v>120</v>
+      </c>
+      <c r="B125" s="48"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E125" s="51"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="1:7" ht="45">
+      <c r="A126" s="45">
+        <v>121</v>
+      </c>
+      <c r="B126" s="49"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="51"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" ht="78.75">
+      <c r="A127" s="45">
+        <v>122</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E127" s="51"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" ht="45">
+      <c r="A128" s="45">
+        <v>123</v>
+      </c>
+      <c r="B128" s="49"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E128" s="51"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7" ht="45">
+      <c r="A129" s="45">
+        <v>124</v>
+      </c>
+      <c r="B129" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E129" s="51"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" ht="123.75">
+      <c r="A130" s="45">
+        <v>125</v>
+      </c>
+      <c r="B130" s="48"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E130" s="51"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" ht="11.25">
+      <c r="A131" s="45">
+        <v>126</v>
+      </c>
+      <c r="B131" s="48"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E131" s="51"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7" ht="11.25">
+      <c r="A132" s="45">
+        <v>127</v>
+      </c>
+      <c r="B132" s="49"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E132" s="51"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" ht="157.5">
+      <c r="A133" s="45">
+        <v>128</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="45"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:7" ht="123.75">
+      <c r="A134" s="45">
+        <v>129</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D134" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="51"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" ht="11.25">
+      <c r="A135" s="45">
+        <v>130</v>
+      </c>
+      <c r="B135" s="48"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E135" s="51"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" ht="112.5">
+      <c r="A136" s="45">
+        <v>131</v>
+      </c>
+      <c r="B136" s="48"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E136" s="51"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" ht="45">
+      <c r="A137" s="45">
+        <v>132</v>
+      </c>
+      <c r="B137" s="49"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="51"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" ht="11.25">
+      <c r="A138" s="45">
+        <v>133</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" s="51"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" ht="11.25">
+      <c r="A139" s="45">
+        <v>134</v>
+      </c>
+      <c r="B139" s="48"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E139" s="51"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" ht="11.25">
+      <c r="A140" s="45">
+        <v>135</v>
+      </c>
+      <c r="B140" s="48"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" s="51"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" ht="11.25">
+      <c r="A141" s="45">
+        <v>136</v>
+      </c>
+      <c r="B141" s="48"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="51"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" ht="11.25">
+      <c r="A142" s="45">
+        <v>137</v>
+      </c>
+      <c r="B142" s="48"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="51"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7" ht="11.25">
+      <c r="A143" s="45">
+        <v>138</v>
+      </c>
+      <c r="B143" s="48"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E143" s="51"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" ht="11.25">
+      <c r="A144" s="45">
+        <v>139</v>
+      </c>
+      <c r="B144" s="48"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" s="51"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145" spans="1:7" ht="11.25">
+      <c r="A145" s="45">
+        <v>140</v>
+      </c>
+      <c r="B145" s="48"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" s="51"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="7"/>
+    </row>
+    <row r="146" spans="1:7" ht="11.25">
+      <c r="A146" s="45">
+        <v>141</v>
+      </c>
+      <c r="B146" s="48"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" s="51"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" ht="11.25">
+      <c r="A147" s="45">
+        <v>142</v>
+      </c>
+      <c r="B147" s="48"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="51"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" spans="1:7" ht="11.25">
+      <c r="A148" s="45">
+        <v>143</v>
+      </c>
+      <c r="B148" s="48"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E148" s="51"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149" spans="1:7" ht="11.25">
+      <c r="A149" s="45">
+        <v>144</v>
+      </c>
+      <c r="B149" s="48"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E149" s="51"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="1:7" ht="45">
+      <c r="A150" s="45">
+        <v>145</v>
+      </c>
+      <c r="B150" s="48"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E150" s="51"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="1:7" ht="45">
+      <c r="A151" s="45">
+        <v>146</v>
+      </c>
+      <c r="B151" s="49"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E151" s="51"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152" spans="1:7" ht="80.25">
+      <c r="A152" s="45">
+        <v>147</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" s="51"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153" spans="1:7" ht="180">
+      <c r="A153" s="45">
+        <v>148</v>
+      </c>
+      <c r="B153" s="48"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="E153" s="51"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="7"/>
+    </row>
+    <row r="154" spans="1:7" ht="78.75">
+      <c r="A154" s="45">
+        <v>149</v>
+      </c>
+      <c r="B154" s="48"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E154" s="51"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155" spans="1:7" ht="105">
+      <c r="A155" s="45">
+        <v>150</v>
+      </c>
+      <c r="B155" s="48"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E155" s="51"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="7"/>
+    </row>
+    <row r="156" spans="1:7" ht="81">
+      <c r="A156" s="45">
+        <v>151</v>
+      </c>
+      <c r="B156" s="48"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E156" s="51"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="7"/>
+    </row>
+    <row r="157" spans="1:7" ht="80.25">
+      <c r="A157" s="45">
+        <v>152</v>
+      </c>
+      <c r="B157" s="48"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E157" s="51"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158" spans="1:7" ht="90.75">
+      <c r="A158" s="45">
+        <v>153</v>
+      </c>
+      <c r="B158" s="48"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="E158" s="51"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="1:7" ht="45">
+      <c r="A159" s="45">
+        <v>154</v>
+      </c>
+      <c r="B159" s="48"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E159" s="51"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" ht="11.25">
+      <c r="A160" s="45">
+        <v>155</v>
+      </c>
+      <c r="B160" s="49"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E160" s="51"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="7"/>
+    </row>
+    <row r="161" spans="1:7" ht="11.25">
+      <c r="A161" s="45">
+        <v>156</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="C161" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E161" s="51"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="7"/>
+    </row>
+    <row r="162" spans="1:7" ht="11.25">
+      <c r="A162" s="45">
+        <v>157</v>
+      </c>
+      <c r="B162" s="49"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E162" s="51"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="7"/>
+    </row>
+    <row r="163" spans="1:7" ht="45">
+      <c r="A163" s="45">
+        <v>158</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C163" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E163" s="51"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="1:7" ht="45">
+      <c r="A164" s="45">
+        <v>159</v>
+      </c>
+      <c r="B164" s="48"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E164" s="51"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="1:7" ht="45">
+      <c r="A165" s="45">
+        <v>160</v>
+      </c>
+      <c r="B165" s="48"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E165" s="51"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="7"/>
+    </row>
+    <row r="166" spans="1:7" ht="11.25">
+      <c r="A166" s="45">
+        <v>161</v>
+      </c>
+      <c r="B166" s="49"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="51"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167" spans="1:7" ht="11.25">
+      <c r="A167" s="45">
+        <v>162</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C167" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E167" s="51"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="1:7" ht="11.25">
+      <c r="A168" s="45">
+        <v>163</v>
+      </c>
+      <c r="B168" s="49"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E168" s="51"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169" spans="1:7" ht="67.5">
+      <c r="A169" s="45">
+        <v>164</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" s="51"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170" spans="1:7" ht="45">
+      <c r="A170" s="45">
+        <v>165</v>
+      </c>
+      <c r="B170" s="48"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" s="51"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="1:7" ht="11.25">
+      <c r="A171" s="45">
+        <v>166</v>
+      </c>
+      <c r="B171" s="48"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E171" s="51"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="1:7" ht="11.25">
+      <c r="A172" s="45">
+        <v>167</v>
+      </c>
+      <c r="B172" s="49"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E172" s="51"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="1:7" ht="45">
+      <c r="A173" s="45">
+        <v>168</v>
+      </c>
+      <c r="B173" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D173" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" s="51"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" spans="1:7" ht="11.25">
+      <c r="A174" s="45">
+        <v>169</v>
+      </c>
+      <c r="B174" s="48"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E174" s="51"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="7"/>
+    </row>
+    <row r="175" spans="1:7" ht="56.25">
+      <c r="A175" s="45">
+        <v>170</v>
+      </c>
+      <c r="B175" s="48"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E175" s="51"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="7"/>
+    </row>
+    <row r="176" spans="1:7" ht="45">
+      <c r="A176" s="45">
+        <v>171</v>
+      </c>
+      <c r="B176" s="48"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="51"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="7"/>
+    </row>
+    <row r="177" spans="1:7" ht="11.25">
+      <c r="A177" s="45">
+        <v>172</v>
+      </c>
+      <c r="B177" s="48"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E177" s="51"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="7"/>
+    </row>
+    <row r="178" spans="1:7" ht="11.25">
+      <c r="A178" s="45">
+        <v>173</v>
+      </c>
+      <c r="B178" s="49"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E178" s="51"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="7"/>
+    </row>
+    <row r="179" spans="1:7" ht="11.25">
+      <c r="A179" s="45">
+        <v>174</v>
+      </c>
+      <c r="B179" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C179" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E179" s="51"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="7"/>
+    </row>
+    <row r="180" spans="1:7" ht="11.25">
+      <c r="A180" s="45">
+        <v>175</v>
+      </c>
+      <c r="B180" s="48"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E180" s="51"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="7"/>
+    </row>
+    <row r="181" spans="1:7" ht="11.25">
+      <c r="A181" s="45">
+        <v>176</v>
+      </c>
+      <c r="B181" s="48"/>
+      <c r="C181" s="50"/>
+      <c r="D181" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E181" s="51"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="7"/>
+    </row>
+    <row r="182" spans="1:7" ht="11.25">
+      <c r="A182" s="45">
+        <v>177</v>
+      </c>
+      <c r="B182" s="48"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E182" s="51"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183" spans="1:7" ht="11.25">
+      <c r="A183" s="45">
+        <v>178</v>
+      </c>
+      <c r="B183" s="48"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E183" s="51"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="7"/>
+    </row>
+    <row r="184" spans="1:7" ht="123.75">
+      <c r="A184" s="45">
+        <v>179</v>
+      </c>
+      <c r="B184" s="49"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E184" s="51"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="7"/>
+    </row>
+    <row r="185" spans="1:7" ht="45">
+      <c r="A185" s="45">
+        <v>180</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D185" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="45"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="7"/>
+    </row>
+    <row r="186" spans="1:7" ht="11.25">
+      <c r="A186" s="45">
+        <v>181</v>
+      </c>
+      <c r="B186" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="C186" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D186" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E186" s="51"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="7"/>
+    </row>
+    <row r="187" spans="1:7" ht="11.25">
+      <c r="A187" s="45">
+        <v>182</v>
+      </c>
+      <c r="B187" s="48"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E187" s="51"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="7"/>
+    </row>
+    <row r="188" spans="1:7" ht="45">
+      <c r="A188" s="45">
+        <v>183</v>
+      </c>
+      <c r="B188" s="49"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E188" s="51"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="7"/>
+    </row>
+    <row r="189" spans="1:7" ht="56.25">
+      <c r="A189" s="45">
+        <v>184</v>
+      </c>
+      <c r="B189" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D189" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E189" s="51"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="7"/>
+    </row>
+    <row r="190" spans="1:7" ht="78.75">
+      <c r="A190" s="45">
+        <v>185</v>
+      </c>
+      <c r="B190" s="48"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" s="51"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="7"/>
+    </row>
+    <row r="191" spans="1:7" ht="45">
+      <c r="A191" s="45">
+        <v>186</v>
+      </c>
+      <c r="B191" s="49"/>
+      <c r="C191" s="50"/>
+      <c r="D191" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" s="51"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" ht="11.25">
+      <c r="A192" s="45">
+        <v>187</v>
+      </c>
+      <c r="B192" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C192" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D192" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E192" s="51"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="7"/>
+    </row>
+    <row r="193" spans="1:7" ht="11.25">
+      <c r="A193" s="45">
+        <v>188</v>
+      </c>
+      <c r="B193" s="48"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E193" s="51"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="7"/>
+    </row>
+    <row r="194" spans="1:7" ht="11.25">
+      <c r="A194" s="45">
+        <v>189</v>
+      </c>
+      <c r="B194" s="49"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="51"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="7"/>
+    </row>
+    <row r="195" spans="1:7" ht="112.5">
+      <c r="A195" s="45">
+        <v>190</v>
+      </c>
+      <c r="B195" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C195" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D195" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E195" s="51"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="7"/>
+    </row>
+    <row r="196" spans="1:7" ht="67.5">
+      <c r="A196" s="45">
+        <v>191</v>
+      </c>
+      <c r="B196" s="48"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E196" s="51"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="7"/>
+    </row>
+    <row r="197" spans="1:7" ht="67.5">
+      <c r="A197" s="45">
+        <v>192</v>
+      </c>
+      <c r="B197" s="48"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E197" s="51"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="7"/>
+    </row>
+    <row r="198" spans="1:7" ht="45">
+      <c r="A198" s="45">
+        <v>193</v>
+      </c>
+      <c r="B198" s="48"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" s="51"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="7"/>
+    </row>
+    <row r="199" spans="1:7" ht="11.25">
+      <c r="A199" s="45">
+        <v>194</v>
+      </c>
+      <c r="B199" s="49"/>
+      <c r="C199" s="50"/>
+      <c r="D199" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E199" s="51"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="7"/>
+    </row>
+    <row r="200" spans="1:7" ht="45">
+      <c r="A200" s="45">
+        <v>195</v>
+      </c>
+      <c r="B200" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C200" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="D200" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200" s="51"/>
+      <c r="F200" s="31"/>
+      <c r="G200" s="7"/>
+    </row>
+    <row r="201" spans="1:7" ht="45">
+      <c r="A201" s="45">
+        <v>196</v>
+      </c>
+      <c r="B201" s="48"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" s="51"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="7"/>
+    </row>
+    <row r="202" spans="1:7" ht="33.75">
+      <c r="A202" s="45">
+        <v>197</v>
+      </c>
+      <c r="B202" s="49"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E202" s="51"/>
+      <c r="F202" s="31"/>
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203" spans="1:7" ht="45">
+      <c r="A203" s="45">
+        <v>198</v>
+      </c>
+      <c r="B203" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C203" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D203" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E203" s="51"/>
+      <c r="F203" s="31"/>
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204" spans="1:7" ht="11.25">
+      <c r="A204" s="45">
+        <v>199</v>
+      </c>
+      <c r="B204" s="49"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E204" s="51"/>
+      <c r="F204" s="31"/>
+      <c r="G204" s="7"/>
+    </row>
+    <row r="205" spans="1:7" ht="33.75">
+      <c r="A205" s="45">
+        <v>200</v>
+      </c>
+      <c r="B205" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C205" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="D205" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E205" s="51"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206" spans="1:7" ht="11.25">
+      <c r="A206" s="45">
+        <v>201</v>
+      </c>
+      <c r="B206" s="48"/>
+      <c r="C206" s="50"/>
+      <c r="D206" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E206" s="51"/>
+      <c r="F206" s="31"/>
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207" spans="1:7" ht="45">
+      <c r="A207" s="45">
+        <v>202</v>
+      </c>
+      <c r="B207" s="48"/>
+      <c r="C207" s="50"/>
+      <c r="D207" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E207" s="51"/>
+      <c r="F207" s="31"/>
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" spans="1:7" ht="11.25">
+      <c r="A208" s="45">
+        <v>203</v>
+      </c>
+      <c r="B208" s="49"/>
+      <c r="C208" s="50"/>
+      <c r="D208" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E208" s="51"/>
+      <c r="F208" s="31"/>
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209" spans="1:7" ht="11.25">
+      <c r="A209" s="45">
+        <v>204</v>
+      </c>
+      <c r="B209" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C209" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D209" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E209" s="51"/>
+      <c r="F209" s="31"/>
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" spans="1:7" ht="11.25">
+      <c r="A210" s="45">
+        <v>205</v>
+      </c>
+      <c r="B210" s="48"/>
+      <c r="C210" s="50"/>
+      <c r="D210" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" s="51"/>
+      <c r="F210" s="31"/>
+      <c r="G210" s="7"/>
+    </row>
+    <row r="211" spans="1:7" ht="11.25">
+      <c r="A211" s="45">
+        <v>206</v>
+      </c>
+      <c r="B211" s="48"/>
+      <c r="C211" s="50"/>
+      <c r="D211" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E211" s="51"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="7"/>
+    </row>
+    <row r="212" spans="1:7" ht="11.25">
+      <c r="A212" s="45">
+        <v>207</v>
+      </c>
+      <c r="B212" s="48"/>
+      <c r="C212" s="50"/>
+      <c r="D212" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E212" s="51"/>
+      <c r="F212" s="31"/>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" spans="1:7" ht="11.25">
+      <c r="A213" s="45">
+        <v>208</v>
+      </c>
+      <c r="B213" s="49"/>
+      <c r="C213" s="50"/>
+      <c r="D213" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E213" s="51"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="7"/>
+    </row>
+    <row r="214" spans="1:7" ht="11.25">
+      <c r="A214" s="45">
+        <v>209</v>
+      </c>
+      <c r="B214" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="C214" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D214" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E214" s="51"/>
+      <c r="F214" s="31"/>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="1:7" ht="45">
+      <c r="A215" s="45">
+        <v>210</v>
+      </c>
+      <c r="B215" s="48"/>
+      <c r="C215" s="50"/>
+      <c r="D215" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E215" s="51"/>
+      <c r="F215" s="31"/>
+      <c r="G215" s="7"/>
+    </row>
+    <row r="216" spans="1:7" ht="11.25">
+      <c r="A216" s="45">
+        <v>211</v>
+      </c>
+      <c r="B216" s="48"/>
+      <c r="C216" s="50"/>
+      <c r="D216" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E216" s="51"/>
+      <c r="F216" s="31"/>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" spans="1:7" ht="11.25">
+      <c r="A217" s="45">
+        <v>212</v>
+      </c>
+      <c r="B217" s="49"/>
+      <c r="C217" s="50"/>
+      <c r="D217" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E217" s="51"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="7"/>
+    </row>
+    <row r="218" spans="1:7" ht="11.25">
+      <c r="A218" s="45">
+        <v>213</v>
+      </c>
+      <c r="B218" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C218" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="D218" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E218" s="51"/>
+      <c r="F218" s="31"/>
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219" spans="1:7" ht="11.25">
+      <c r="A219" s="45">
+        <v>214</v>
+      </c>
+      <c r="B219" s="48"/>
+      <c r="C219" s="50"/>
+      <c r="D219" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E219" s="51"/>
+      <c r="F219" s="31"/>
+      <c r="G219" s="7"/>
+    </row>
+    <row r="220" spans="1:7" ht="45">
+      <c r="A220" s="45">
+        <v>215</v>
+      </c>
+      <c r="B220" s="48"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E220" s="51"/>
+      <c r="F220" s="31"/>
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221" spans="1:7" ht="11.25">
+      <c r="A221" s="45">
+        <v>216</v>
+      </c>
+      <c r="B221" s="48"/>
+      <c r="C221" s="50"/>
+      <c r="D221" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E221" s="51"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222" spans="1:7" ht="45">
+      <c r="A222" s="45">
+        <v>217</v>
+      </c>
+      <c r="B222" s="48"/>
+      <c r="C222" s="50"/>
+      <c r="D222" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E222" s="51"/>
+      <c r="F222" s="31"/>
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223" spans="1:7" ht="11.25">
+      <c r="A223" s="45">
+        <v>218</v>
+      </c>
+      <c r="B223" s="48"/>
+      <c r="C223" s="50"/>
+      <c r="D223" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="51"/>
+      <c r="F223" s="31"/>
+      <c r="G223" s="7"/>
+    </row>
+    <row r="224" spans="1:7" ht="11.25">
+      <c r="A224" s="45">
+        <v>219</v>
+      </c>
+      <c r="B224" s="49"/>
+      <c r="C224" s="50"/>
+      <c r="D224" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E224" s="51"/>
+      <c r="F224" s="31"/>
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" spans="1:7" ht="56.25">
+      <c r="A225" s="45">
+        <v>220</v>
+      </c>
+      <c r="B225" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C225" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="D225" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E225" s="51"/>
+      <c r="F225" s="31"/>
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" spans="1:7" ht="45">
+      <c r="A226" s="45">
+        <v>221</v>
+      </c>
+      <c r="B226" s="48"/>
+      <c r="C226" s="50"/>
+      <c r="D226" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E226" s="51"/>
+      <c r="F226" s="31"/>
+      <c r="G226" s="7"/>
+    </row>
+    <row r="227" spans="1:7" ht="11.25">
+      <c r="A227" s="45">
+        <v>222</v>
+      </c>
+      <c r="B227" s="48"/>
+      <c r="C227" s="50"/>
+      <c r="D227" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E227" s="51"/>
+      <c r="F227" s="31"/>
+      <c r="G227" s="7"/>
+    </row>
+    <row r="228" spans="1:7" ht="11.25">
+      <c r="A228" s="45">
+        <v>223</v>
+      </c>
+      <c r="B228" s="48"/>
+      <c r="C228" s="50"/>
+      <c r="D228" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E228" s="51"/>
+      <c r="F228" s="31"/>
+      <c r="G228" s="7"/>
+    </row>
+    <row r="229" spans="1:7" ht="45">
+      <c r="A229" s="45">
+        <v>224</v>
+      </c>
+      <c r="B229" s="48"/>
+      <c r="C229" s="50"/>
+      <c r="D229" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
-        <v>3</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
-        <v>4</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="48" t="s">
+      <c r="E229" s="51"/>
+      <c r="F229" s="31"/>
+      <c r="G229" s="7"/>
+    </row>
+    <row r="230" spans="1:7" ht="11.25">
+      <c r="A230" s="45">
+        <v>225</v>
+      </c>
+      <c r="B230" s="48"/>
+      <c r="C230" s="50"/>
+      <c r="D230" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="52">
-        <v>5</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52">
-        <v>6</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A12" s="52">
-        <v>7</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="52">
-        <v>8</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
-        <v>9</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
-        <v>10</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A16" s="52">
-        <v>11</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="52">
-        <v>12</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="52">
-        <v>13</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="52">
-        <v>14</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="52">
-        <v>15</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="52">
-        <v>16</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="52">
-        <v>17</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="52">
-        <v>18</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="52">
-        <v>19</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
-        <v>20</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="52">
-        <v>21</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="52">
-        <v>22</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="52">
-        <v>23</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="E230" s="51"/>
+      <c r="F230" s="31"/>
+      <c r="G230" s="7"/>
+    </row>
+    <row r="231" spans="1:7" ht="11.25">
+      <c r="A231" s="45">
         <v>226</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="52">
-        <v>24</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="52">
-        <v>25</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="47" t="s">
+      <c r="B231" s="48"/>
+      <c r="C231" s="50"/>
+      <c r="D231" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E231" s="51"/>
+      <c r="F231" s="31"/>
+      <c r="G231" s="7"/>
+    </row>
+    <row r="232" spans="1:7" ht="11.25">
+      <c r="A232" s="45">
         <v>227</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="52">
-        <v>26</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="52">
-        <v>27</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="52">
-        <v>28</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A34" s="52">
-        <v>29</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
-        <v>30</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="52">
-        <v>31</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A37" s="52">
-        <v>32</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A38" s="52">
-        <v>33</v>
-      </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" s="13" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="52">
-        <v>34</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="52">
-        <v>35</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="52">
-        <v>36</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="52">
-        <v>37</v>
-      </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="52">
-        <v>38</v>
-      </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="52">
-        <v>39</v>
-      </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
-        <v>40</v>
-      </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="52">
-        <v>41</v>
-      </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="52">
-        <v>42</v>
-      </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="52">
-        <v>43</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="52">
-        <v>44</v>
-      </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A50" s="52">
-        <v>45</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="G50" s="32"/>
-    </row>
-    <row r="51" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
-        <v>46</v>
-      </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="G51" s="32"/>
-    </row>
-    <row r="52" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A52" s="52">
-        <v>47</v>
-      </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="G52" s="32"/>
-    </row>
-    <row r="53" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A53" s="52">
-        <v>48</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="G53" s="32"/>
-    </row>
-    <row r="54" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A54" s="52">
-        <v>49</v>
-      </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="G54" s="32"/>
-    </row>
-    <row r="55" spans="1:7" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A55" s="52">
-        <v>50</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="G55" s="32"/>
-    </row>
-    <row r="56" spans="1:7" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A56" s="52">
-        <v>51</v>
-      </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="G56" s="32"/>
-    </row>
-    <row r="57" spans="1:7" s="31" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="52">
-        <v>52</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A58" s="52">
-        <v>53</v>
-      </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="1:7" s="31" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="52">
-        <v>54</v>
-      </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="1:7" s="31" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="52">
-        <v>55</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="1:7" s="31" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="52">
-        <v>56</v>
-      </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="1:7" s="31" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="52">
-        <v>57</v>
-      </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" s="31" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="52">
-        <v>58</v>
-      </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="1:7" s="34" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="52">
-        <v>59</v>
-      </c>
-      <c r="B64" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="1:7" s="34" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A65" s="52">
-        <v>60</v>
-      </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="1:7" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A66" s="52">
-        <v>61</v>
-      </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="52" t="s">
-        <v>379</v>
-      </c>
-      <c r="F66" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" spans="1:7" s="34" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="52">
-        <v>62</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="F67" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" s="34" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="52">
-        <v>63</v>
-      </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="52">
-        <v>64</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E69" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A70" s="52">
-        <v>65</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="E70" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A71" s="52">
-        <v>66</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="52">
-        <v>67</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="52">
-        <v>68</v>
-      </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="F73" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="52">
-        <v>69</v>
-      </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" s="34" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="52">
-        <v>70</v>
-      </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" s="31" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="52">
-        <v>71</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="G76" s="32"/>
-    </row>
-    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A77" s="52">
-        <v>72</v>
-      </c>
-      <c r="B77" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="32"/>
-    </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A78" s="52">
-        <v>73</v>
-      </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="32"/>
-    </row>
-    <row r="79" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
-        <v>74</v>
-      </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="32"/>
-    </row>
-    <row r="80" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="52">
-        <v>75</v>
-      </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="32"/>
-    </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A81" s="52">
-        <v>76</v>
-      </c>
-      <c r="B81" s="56"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="32"/>
-    </row>
-    <row r="82" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="52">
-        <v>77</v>
-      </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="32"/>
-    </row>
-    <row r="83" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="52">
-        <v>78</v>
-      </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="32"/>
-    </row>
-    <row r="84" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="52">
-        <v>79</v>
-      </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="32"/>
-    </row>
-    <row r="85" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="52">
-        <v>80</v>
-      </c>
-      <c r="B85" s="56"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="32"/>
-    </row>
-    <row r="86" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="52">
-        <v>81</v>
-      </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="32"/>
-    </row>
-    <row r="87" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52">
-        <v>82</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="E87" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="F87" s="51"/>
-      <c r="G87" s="32"/>
-    </row>
-    <row r="88" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="52">
-        <v>83</v>
-      </c>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="61"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="32"/>
-    </row>
-    <row r="89" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A89" s="52">
-        <v>84</v>
-      </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="E89" s="61"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="32"/>
-    </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A90" s="52">
-        <v>85</v>
-      </c>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E90" s="62"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="32"/>
-    </row>
-    <row r="91" spans="1:7" s="31" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A91" s="52">
-        <v>86</v>
-      </c>
-      <c r="B91" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="14"/>
-    </row>
-    <row r="92" spans="1:7" s="31" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="52">
-        <v>87</v>
-      </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="14"/>
-    </row>
-    <row r="93" spans="1:7" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
-        <v>88</v>
-      </c>
-      <c r="B93" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="14"/>
-    </row>
-    <row r="94" spans="1:7" s="31" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A94" s="52">
-        <v>89</v>
-      </c>
-      <c r="B94" s="56"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="14"/>
-    </row>
-    <row r="95" spans="1:7" s="31" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A95" s="52">
-        <v>90</v>
-      </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="14"/>
-    </row>
-    <row r="96" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A96" s="52">
-        <v>91</v>
-      </c>
-      <c r="B96" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="14"/>
-    </row>
-    <row r="97" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A97" s="52">
-        <v>92</v>
-      </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="14"/>
-    </row>
-    <row r="98" spans="1:7" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A98" s="52">
-        <v>93</v>
-      </c>
-      <c r="B98" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="14"/>
-    </row>
-    <row r="99" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A99" s="52">
-        <v>94</v>
-      </c>
-      <c r="B99" s="56"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="14"/>
-    </row>
-    <row r="100" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A100" s="52">
-        <v>95</v>
-      </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="14"/>
-    </row>
-    <row r="101" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A101" s="52">
-        <v>96</v>
-      </c>
-      <c r="B101" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="14"/>
-    </row>
-    <row r="102" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A102" s="52">
-        <v>97</v>
-      </c>
-      <c r="B102" s="56"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="14"/>
-    </row>
-    <row r="103" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A103" s="52">
-        <v>98</v>
-      </c>
-      <c r="B103" s="56"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="14"/>
-    </row>
-    <row r="104" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A104" s="52">
-        <v>99</v>
-      </c>
-      <c r="B104" s="56"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="14"/>
-    </row>
-    <row r="105" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A105" s="52">
-        <v>100</v>
-      </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="14"/>
-    </row>
-    <row r="106" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A106" s="52">
-        <v>101</v>
-      </c>
-      <c r="B106" s="55"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="14"/>
-    </row>
-    <row r="107" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
-        <v>102</v>
-      </c>
-      <c r="B107" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D107" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="14"/>
-    </row>
-    <row r="108" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A108" s="52">
-        <v>103</v>
-      </c>
-      <c r="B108" s="56"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="14"/>
-    </row>
-    <row r="109" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A109" s="52">
-        <v>104</v>
-      </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="14"/>
-    </row>
-    <row r="110" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A110" s="52">
-        <v>105</v>
-      </c>
-      <c r="B110" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="14"/>
-    </row>
-    <row r="111" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A111" s="52">
-        <v>106</v>
-      </c>
-      <c r="B111" s="56"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="14"/>
-    </row>
-    <row r="112" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A112" s="52">
-        <v>107</v>
-      </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="14"/>
-    </row>
-    <row r="113" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A113" s="52">
-        <v>108</v>
-      </c>
-      <c r="B113" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="14"/>
-    </row>
-    <row r="114" spans="1:7" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A114" s="52">
-        <v>109</v>
-      </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="14"/>
-    </row>
-    <row r="115" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A115" s="52">
-        <v>110</v>
-      </c>
-      <c r="B115" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D115" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="14"/>
-    </row>
-    <row r="116" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A116" s="52">
-        <v>111</v>
-      </c>
-      <c r="B116" s="56"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="14"/>
-    </row>
-    <row r="117" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A117" s="52">
-        <v>112</v>
-      </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="14"/>
-    </row>
-    <row r="118" spans="1:7" s="13" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A118" s="52">
-        <v>113</v>
-      </c>
-      <c r="B118" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="14"/>
-    </row>
-    <row r="119" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A119" s="52">
-        <v>114</v>
-      </c>
-      <c r="B119" s="56"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="14"/>
-    </row>
-    <row r="120" spans="1:7" s="13" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A120" s="52">
-        <v>115</v>
-      </c>
-      <c r="B120" s="55"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="14"/>
-    </row>
-    <row r="121" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A121" s="52">
-        <v>116</v>
-      </c>
-      <c r="B121" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D121" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="14"/>
-    </row>
-    <row r="122" spans="1:7" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="52">
-        <v>117</v>
-      </c>
-      <c r="B122" s="56"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="14"/>
-    </row>
-    <row r="123" spans="1:7" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A123" s="52">
-        <v>118</v>
-      </c>
-      <c r="B123" s="56"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="14"/>
-    </row>
-    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A124" s="52">
-        <v>119</v>
-      </c>
-      <c r="B124" s="56"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="14"/>
-    </row>
-    <row r="125" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A125" s="52">
-        <v>120</v>
-      </c>
-      <c r="B125" s="56"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="14"/>
-    </row>
-    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A126" s="52">
-        <v>121</v>
-      </c>
-      <c r="B126" s="55"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="14"/>
-    </row>
-    <row r="127" spans="1:7" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A127" s="52">
-        <v>122</v>
-      </c>
-      <c r="B127" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D127" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="14"/>
-    </row>
-    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A128" s="52">
-        <v>123</v>
-      </c>
-      <c r="B128" s="55"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="14"/>
-    </row>
-    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A129" s="52">
-        <v>124</v>
-      </c>
-      <c r="B129" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D129" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="14"/>
-    </row>
-    <row r="130" spans="1:7" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A130" s="52">
-        <v>125</v>
-      </c>
-      <c r="B130" s="56"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="14"/>
-    </row>
-    <row r="131" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A131" s="52">
-        <v>126</v>
-      </c>
-      <c r="B131" s="56"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="14"/>
-    </row>
-    <row r="132" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A132" s="52">
-        <v>127</v>
-      </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="14"/>
-    </row>
-    <row r="133" spans="1:7" ht="157.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="52">
-        <v>128</v>
-      </c>
-      <c r="B133" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C133" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="E133" s="52"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="14"/>
-    </row>
-    <row r="134" spans="1:7" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A134" s="52">
-        <v>129</v>
-      </c>
-      <c r="B134" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D134" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="14"/>
-    </row>
-    <row r="135" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A135" s="52">
-        <v>130</v>
-      </c>
-      <c r="B135" s="56"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="14"/>
-    </row>
-    <row r="136" spans="1:7" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="52">
-        <v>131</v>
-      </c>
-      <c r="B136" s="56"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="14"/>
-    </row>
-    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A137" s="52">
-        <v>132</v>
-      </c>
-      <c r="B137" s="55"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="14"/>
-    </row>
-    <row r="138" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A138" s="52">
-        <v>133</v>
-      </c>
-      <c r="B138" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D138" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="14"/>
-    </row>
-    <row r="139" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A139" s="52">
-        <v>134</v>
-      </c>
-      <c r="B139" s="56"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="14"/>
-    </row>
-    <row r="140" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A140" s="52">
-        <v>135</v>
-      </c>
-      <c r="B140" s="56"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="14"/>
-    </row>
-    <row r="141" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A141" s="52">
-        <v>136</v>
-      </c>
-      <c r="B141" s="56"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="14"/>
-    </row>
-    <row r="142" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A142" s="52">
-        <v>137</v>
-      </c>
-      <c r="B142" s="56"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="14"/>
-    </row>
-    <row r="143" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A143" s="52">
-        <v>138</v>
-      </c>
-      <c r="B143" s="56"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="14"/>
-    </row>
-    <row r="144" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A144" s="52">
-        <v>139</v>
-      </c>
-      <c r="B144" s="56"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="14"/>
-    </row>
-    <row r="145" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A145" s="52">
-        <v>140</v>
-      </c>
-      <c r="B145" s="56"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="14"/>
-    </row>
-    <row r="146" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A146" s="52">
-        <v>141</v>
-      </c>
-      <c r="B146" s="56"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="14"/>
-    </row>
-    <row r="147" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A147" s="52">
-        <v>142</v>
-      </c>
-      <c r="B147" s="56"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="38"/>
-      <c r="G147" s="14"/>
-    </row>
-    <row r="148" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A148" s="52">
-        <v>143</v>
-      </c>
-      <c r="B148" s="56"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="14"/>
-    </row>
-    <row r="149" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A149" s="52">
+      <c r="B232" s="49"/>
+      <c r="C232" s="50"/>
+      <c r="D232" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B149" s="56"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="E149" s="7"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="14"/>
-    </row>
-    <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A150" s="52">
-        <v>145</v>
-      </c>
-      <c r="B150" s="56"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="14"/>
-    </row>
-    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A151" s="52">
-        <v>146</v>
-      </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="14"/>
-    </row>
-    <row r="152" spans="1:7" ht="80.25" x14ac:dyDescent="0.15">
-      <c r="A152" s="52">
-        <v>147</v>
-      </c>
-      <c r="B152" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D152" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="14"/>
-    </row>
-    <row r="153" spans="1:7" ht="180" x14ac:dyDescent="0.15">
-      <c r="A153" s="52">
-        <v>148</v>
-      </c>
-      <c r="B153" s="56"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="14"/>
-    </row>
-    <row r="154" spans="1:7" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A154" s="52">
-        <v>149</v>
-      </c>
-      <c r="B154" s="56"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="14"/>
-    </row>
-    <row r="155" spans="1:7" ht="105" x14ac:dyDescent="0.15">
-      <c r="A155" s="52">
-        <v>150</v>
-      </c>
-      <c r="B155" s="56"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="38"/>
-      <c r="G155" s="14"/>
-    </row>
-    <row r="156" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A156" s="52">
-        <v>151</v>
-      </c>
-      <c r="B156" s="56"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="14"/>
-    </row>
-    <row r="157" spans="1:7" ht="80.25" x14ac:dyDescent="0.15">
-      <c r="A157" s="52">
-        <v>152</v>
-      </c>
-      <c r="B157" s="56"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="14"/>
-    </row>
-    <row r="158" spans="1:7" ht="90.75" x14ac:dyDescent="0.15">
-      <c r="A158" s="52">
-        <v>153</v>
-      </c>
-      <c r="B158" s="56"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E158" s="7"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="14"/>
-    </row>
-    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A159" s="52">
-        <v>154</v>
-      </c>
-      <c r="B159" s="56"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E159" s="7"/>
-      <c r="F159" s="38"/>
-      <c r="G159" s="14"/>
-    </row>
-    <row r="160" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A160" s="52">
-        <v>155</v>
-      </c>
-      <c r="B160" s="55"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="14"/>
-    </row>
-    <row r="161" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A161" s="52">
-        <v>156</v>
-      </c>
-      <c r="B161" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D161" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="38"/>
-      <c r="G161" s="14"/>
-    </row>
-    <row r="162" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A162" s="52">
-        <v>157</v>
-      </c>
-      <c r="B162" s="55"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E162" s="7"/>
-      <c r="F162" s="38"/>
-      <c r="G162" s="14"/>
-    </row>
-    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A163" s="52">
-        <v>158</v>
-      </c>
-      <c r="B163" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D163" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="14"/>
-    </row>
-    <row r="164" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A164" s="52">
-        <v>159</v>
-      </c>
-      <c r="B164" s="56"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="E164" s="7"/>
-      <c r="F164" s="38"/>
-      <c r="G164" s="14"/>
-    </row>
-    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A165" s="52">
-        <v>160</v>
-      </c>
-      <c r="B165" s="56"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="14"/>
-    </row>
-    <row r="166" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A166" s="52">
-        <v>161</v>
-      </c>
-      <c r="B166" s="55"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E166" s="7"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="14"/>
-    </row>
-    <row r="167" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A167" s="52">
-        <v>162</v>
-      </c>
-      <c r="B167" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D167" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="38"/>
-      <c r="G167" s="14"/>
-    </row>
-    <row r="168" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A168" s="52">
-        <v>163</v>
-      </c>
-      <c r="B168" s="55"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E168" s="7"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="14"/>
-    </row>
-    <row r="169" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A169" s="52">
-        <v>164</v>
-      </c>
-      <c r="B169" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D169" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E169" s="7"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="14"/>
-    </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A170" s="52">
-        <v>165</v>
-      </c>
-      <c r="B170" s="56"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E170" s="7"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="14"/>
-    </row>
-    <row r="171" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A171" s="52">
-        <v>166</v>
-      </c>
-      <c r="B171" s="56"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E171" s="7"/>
-      <c r="F171" s="38"/>
-      <c r="G171" s="14"/>
-    </row>
-    <row r="172" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A172" s="52">
-        <v>167</v>
-      </c>
-      <c r="B172" s="55"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E172" s="7"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="14"/>
-    </row>
-    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A173" s="52">
-        <v>168</v>
-      </c>
-      <c r="B173" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D173" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="14"/>
-    </row>
-    <row r="174" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A174" s="52">
-        <v>169</v>
-      </c>
-      <c r="B174" s="56"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E174" s="7"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="14"/>
-    </row>
-    <row r="175" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A175" s="52">
-        <v>170</v>
-      </c>
-      <c r="B175" s="56"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E175" s="7"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="14"/>
-    </row>
-    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A176" s="52">
-        <v>171</v>
-      </c>
-      <c r="B176" s="56"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E176" s="7"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="14"/>
-    </row>
-    <row r="177" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A177" s="52">
-        <v>172</v>
-      </c>
-      <c r="B177" s="56"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E177" s="7"/>
-      <c r="F177" s="38"/>
-      <c r="G177" s="14"/>
-    </row>
-    <row r="178" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A178" s="52">
-        <v>173</v>
-      </c>
-      <c r="B178" s="55"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E178" s="7"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="14"/>
-    </row>
-    <row r="179" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A179" s="52">
-        <v>174</v>
-      </c>
-      <c r="B179" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D179" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E179" s="7"/>
-      <c r="F179" s="38"/>
-      <c r="G179" s="14"/>
-    </row>
-    <row r="180" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A180" s="52">
-        <v>175</v>
-      </c>
-      <c r="B180" s="56"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="14"/>
-    </row>
-    <row r="181" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A181" s="52">
-        <v>176</v>
-      </c>
-      <c r="B181" s="56"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E181" s="7"/>
-      <c r="F181" s="38"/>
-      <c r="G181" s="14"/>
-    </row>
-    <row r="182" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A182" s="52">
-        <v>177</v>
-      </c>
-      <c r="B182" s="56"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E182" s="7"/>
-      <c r="F182" s="38"/>
-      <c r="G182" s="14"/>
-    </row>
-    <row r="183" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A183" s="52">
-        <v>178</v>
-      </c>
-      <c r="B183" s="56"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="E183" s="7"/>
-      <c r="F183" s="38"/>
-      <c r="G183" s="14"/>
-    </row>
-    <row r="184" spans="1:7" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A184" s="52">
-        <v>179</v>
-      </c>
-      <c r="B184" s="55"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E184" s="7"/>
-      <c r="F184" s="38"/>
-      <c r="G184" s="14"/>
-    </row>
-    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A185" s="52">
-        <v>180</v>
-      </c>
-      <c r="B185" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="C185" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D185" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E185" s="52"/>
-      <c r="F185" s="38"/>
-      <c r="G185" s="14"/>
-    </row>
-    <row r="186" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A186" s="52">
-        <v>181</v>
-      </c>
-      <c r="B186" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D186" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E186" s="7"/>
-      <c r="F186" s="38"/>
-      <c r="G186" s="14"/>
-    </row>
-    <row r="187" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A187" s="52">
-        <v>182</v>
-      </c>
-      <c r="B187" s="56"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E187" s="7"/>
-      <c r="F187" s="38"/>
-      <c r="G187" s="14"/>
-    </row>
-    <row r="188" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A188" s="52">
-        <v>183</v>
-      </c>
-      <c r="B188" s="55"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E188" s="7"/>
-      <c r="F188" s="38"/>
-      <c r="G188" s="14"/>
-    </row>
-    <row r="189" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A189" s="52">
-        <v>184</v>
-      </c>
-      <c r="B189" s="54" t="s">
-        <v>332</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D189" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="38"/>
-      <c r="G189" s="14"/>
-    </row>
-    <row r="190" spans="1:7" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A190" s="52">
-        <v>185</v>
-      </c>
-      <c r="B190" s="56"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E190" s="7"/>
-      <c r="F190" s="38"/>
-      <c r="G190" s="14"/>
-    </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A191" s="52">
-        <v>186</v>
-      </c>
-      <c r="B191" s="55"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E191" s="7"/>
-      <c r="F191" s="38"/>
-      <c r="G191" s="14"/>
-    </row>
-    <row r="192" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A192" s="52">
-        <v>187</v>
-      </c>
-      <c r="B192" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D192" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E192" s="7"/>
-      <c r="F192" s="38"/>
-      <c r="G192" s="14"/>
-    </row>
-    <row r="193" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A193" s="52">
-        <v>188</v>
-      </c>
-      <c r="B193" s="56"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="E193" s="7"/>
-      <c r="F193" s="38"/>
-      <c r="G193" s="14"/>
-    </row>
-    <row r="194" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A194" s="52">
-        <v>189</v>
-      </c>
-      <c r="B194" s="55"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E194" s="7"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="14"/>
-    </row>
-    <row r="195" spans="1:7" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="52">
-        <v>190</v>
-      </c>
-      <c r="B195" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D195" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="E195" s="7"/>
-      <c r="F195" s="38"/>
-      <c r="G195" s="14"/>
-    </row>
-    <row r="196" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A196" s="52">
-        <v>191</v>
-      </c>
-      <c r="B196" s="56"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E196" s="7"/>
-      <c r="F196" s="38"/>
-      <c r="G196" s="14"/>
-    </row>
-    <row r="197" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A197" s="52">
-        <v>192</v>
-      </c>
-      <c r="B197" s="56"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E197" s="7"/>
-      <c r="F197" s="38"/>
-      <c r="G197" s="14"/>
-    </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A198" s="52">
-        <v>193</v>
-      </c>
-      <c r="B198" s="56"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E198" s="7"/>
-      <c r="F198" s="38"/>
-      <c r="G198" s="14"/>
-    </row>
-    <row r="199" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A199" s="52">
-        <v>194</v>
-      </c>
-      <c r="B199" s="55"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E199" s="7"/>
-      <c r="F199" s="38"/>
-      <c r="G199" s="14"/>
-    </row>
-    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A200" s="52">
-        <v>195</v>
-      </c>
-      <c r="B200" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D200" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E200" s="7"/>
-      <c r="F200" s="38"/>
-      <c r="G200" s="14"/>
-    </row>
-    <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A201" s="52">
-        <v>196</v>
-      </c>
-      <c r="B201" s="56"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E201" s="7"/>
-      <c r="F201" s="38"/>
-      <c r="G201" s="14"/>
-    </row>
-    <row r="202" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A202" s="52">
-        <v>197</v>
-      </c>
-      <c r="B202" s="55"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E202" s="7"/>
-      <c r="F202" s="38"/>
-      <c r="G202" s="14"/>
-    </row>
-    <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A203" s="52">
-        <v>198</v>
-      </c>
-      <c r="B203" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D203" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E203" s="7"/>
-      <c r="F203" s="38"/>
-      <c r="G203" s="14"/>
-    </row>
-    <row r="204" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A204" s="52">
-        <v>199</v>
-      </c>
-      <c r="B204" s="55"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E204" s="7"/>
-      <c r="F204" s="38"/>
-      <c r="G204" s="14"/>
-    </row>
-    <row r="205" spans="1:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A205" s="52">
-        <v>200</v>
-      </c>
-      <c r="B205" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D205" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E205" s="7"/>
-      <c r="F205" s="38"/>
-      <c r="G205" s="14"/>
-    </row>
-    <row r="206" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A206" s="52">
-        <v>201</v>
-      </c>
-      <c r="B206" s="56"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E206" s="7"/>
-      <c r="F206" s="38"/>
-      <c r="G206" s="14"/>
-    </row>
-    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A207" s="52">
-        <v>202</v>
-      </c>
-      <c r="B207" s="56"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E207" s="7"/>
-      <c r="F207" s="38"/>
-      <c r="G207" s="14"/>
-    </row>
-    <row r="208" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A208" s="52">
-        <v>203</v>
-      </c>
-      <c r="B208" s="55"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E208" s="7"/>
-      <c r="F208" s="38"/>
-      <c r="G208" s="14"/>
-    </row>
-    <row r="209" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A209" s="52">
-        <v>204</v>
-      </c>
-      <c r="B209" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D209" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E209" s="7"/>
-      <c r="F209" s="38"/>
-      <c r="G209" s="14"/>
-    </row>
-    <row r="210" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A210" s="52">
-        <v>205</v>
-      </c>
-      <c r="B210" s="56"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210" s="7"/>
-      <c r="F210" s="38"/>
-      <c r="G210" s="14"/>
-    </row>
-    <row r="211" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A211" s="52">
-        <v>206</v>
-      </c>
-      <c r="B211" s="56"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E211" s="7"/>
-      <c r="F211" s="38"/>
-      <c r="G211" s="14"/>
-    </row>
-    <row r="212" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A212" s="52">
-        <v>207</v>
-      </c>
-      <c r="B212" s="56"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E212" s="7"/>
-      <c r="F212" s="38"/>
-      <c r="G212" s="14"/>
-    </row>
-    <row r="213" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A213" s="52">
-        <v>208</v>
-      </c>
-      <c r="B213" s="55"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="E213" s="7"/>
-      <c r="F213" s="38"/>
-      <c r="G213" s="14"/>
-    </row>
-    <row r="214" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A214" s="52">
-        <v>209</v>
-      </c>
-      <c r="B214" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D214" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E214" s="7"/>
-      <c r="F214" s="38"/>
-      <c r="G214" s="14"/>
-    </row>
-    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A215" s="52">
-        <v>210</v>
-      </c>
-      <c r="B215" s="56"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E215" s="7"/>
-      <c r="F215" s="38"/>
-      <c r="G215" s="14"/>
-    </row>
-    <row r="216" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A216" s="52">
-        <v>211</v>
-      </c>
-      <c r="B216" s="56"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E216" s="7"/>
-      <c r="F216" s="38"/>
-      <c r="G216" s="14"/>
-    </row>
-    <row r="217" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A217" s="52">
-        <v>212</v>
-      </c>
-      <c r="B217" s="55"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="E217" s="7"/>
-      <c r="F217" s="38"/>
-      <c r="G217" s="14"/>
-    </row>
-    <row r="218" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A218" s="52">
-        <v>213</v>
-      </c>
-      <c r="B218" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D218" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E218" s="7"/>
-      <c r="F218" s="38"/>
-      <c r="G218" s="14"/>
-    </row>
-    <row r="219" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A219" s="52">
-        <v>214</v>
-      </c>
-      <c r="B219" s="56"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E219" s="7"/>
-      <c r="F219" s="38"/>
-      <c r="G219" s="14"/>
-    </row>
-    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A220" s="52">
-        <v>215</v>
-      </c>
-      <c r="B220" s="56"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E220" s="7"/>
-      <c r="F220" s="38"/>
-      <c r="G220" s="14"/>
-    </row>
-    <row r="221" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A221" s="52">
-        <v>216</v>
-      </c>
-      <c r="B221" s="56"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E221" s="7"/>
-      <c r="F221" s="38"/>
-      <c r="G221" s="14"/>
-    </row>
-    <row r="222" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A222" s="52">
-        <v>217</v>
-      </c>
-      <c r="B222" s="56"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E222" s="7"/>
-      <c r="F222" s="38"/>
-      <c r="G222" s="14"/>
-    </row>
-    <row r="223" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A223" s="52">
-        <v>218</v>
-      </c>
-      <c r="B223" s="56"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E223" s="7"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="14"/>
-    </row>
-    <row r="224" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A224" s="52">
-        <v>219</v>
-      </c>
-      <c r="B224" s="55"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E224" s="7"/>
-      <c r="F224" s="38"/>
-      <c r="G224" s="14"/>
-    </row>
-    <row r="225" spans="1:7" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A225" s="52">
-        <v>220</v>
-      </c>
-      <c r="B225" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D225" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E225" s="7"/>
-      <c r="F225" s="38"/>
-      <c r="G225" s="14"/>
-    </row>
-    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A226" s="52">
-        <v>221</v>
-      </c>
-      <c r="B226" s="56"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E226" s="7"/>
-      <c r="F226" s="38"/>
-      <c r="G226" s="14"/>
-    </row>
-    <row r="227" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A227" s="52">
-        <v>222</v>
-      </c>
-      <c r="B227" s="56"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E227" s="7"/>
-      <c r="F227" s="38"/>
-      <c r="G227" s="14"/>
-    </row>
-    <row r="228" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A228" s="52">
-        <v>223</v>
-      </c>
-      <c r="B228" s="56"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E228" s="7"/>
-      <c r="F228" s="38"/>
-      <c r="G228" s="14"/>
-    </row>
-    <row r="229" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A229" s="52">
-        <v>224</v>
-      </c>
-      <c r="B229" s="56"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E229" s="7"/>
-      <c r="F229" s="38"/>
-      <c r="G229" s="14"/>
-    </row>
-    <row r="230" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A230" s="52">
-        <v>225</v>
-      </c>
-      <c r="B230" s="56"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="E230" s="7"/>
-      <c r="F230" s="38"/>
-      <c r="G230" s="14"/>
-    </row>
-    <row r="231" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A231" s="52">
-        <v>226</v>
-      </c>
-      <c r="B231" s="56"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E231" s="7"/>
-      <c r="F231" s="38"/>
-      <c r="G231" s="14"/>
-    </row>
-    <row r="232" spans="1:7" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A232" s="52">
-        <v>227</v>
-      </c>
-      <c r="B232" s="55"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E232" s="7"/>
-      <c r="F232" s="38"/>
-      <c r="G232" s="14"/>
+      <c r="E232" s="51"/>
+      <c r="F232" s="31"/>
+      <c r="G232" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B218:B224"/>
-    <mergeCell ref="B225:B232"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="E205:E208"/>
-    <mergeCell ref="C209:C213"/>
-    <mergeCell ref="E209:E213"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="E214:E217"/>
-    <mergeCell ref="C218:C224"/>
-    <mergeCell ref="E218:E224"/>
-    <mergeCell ref="C225:C232"/>
-    <mergeCell ref="E225:E232"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="E189:E191"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="E195:E199"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="E101:E106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="E77:E86"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="C138:C151"/>
+    <mergeCell ref="E138:E151"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="E87:E90"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="C121:C126"/>
+    <mergeCell ref="E121:E126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C152:C160"/>
+    <mergeCell ref="E152:E160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="E163:E166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="E169:E172"/>
     <mergeCell ref="C173:C178"/>
     <mergeCell ref="E173:E178"/>
     <mergeCell ref="C179:C184"/>
@@ -12782,94 +12837,40 @@
     <mergeCell ref="B161:B162"/>
     <mergeCell ref="B163:B166"/>
     <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C152:C160"/>
-    <mergeCell ref="E152:E160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="C138:C151"/>
-    <mergeCell ref="E138:E151"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="E87:E90"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="C121:C126"/>
-    <mergeCell ref="E121:E126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="E101:E106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="E77:E86"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E33:E40"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="C6:C17"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E6:E17"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="E189:E191"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="C195:C199"/>
+    <mergeCell ref="E195:E199"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="E205:E208"/>
+    <mergeCell ref="C209:C213"/>
+    <mergeCell ref="E209:E213"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="E214:E217"/>
+    <mergeCell ref="C218:C224"/>
+    <mergeCell ref="E218:E224"/>
+    <mergeCell ref="C225:C232"/>
+    <mergeCell ref="E225:E232"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B218:B224"/>
+    <mergeCell ref="B225:B232"/>
+    <mergeCell ref="B195:B199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="B214:B217"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.59041666984558105" right="0.59041666984558105" top="0.98416668176651001" bottom="0.98416668176651001" header="0.51152777671813965" footer="0.51152777671813965"/>
